--- a/Sura/DataSource - ValidaFormularios - Flota Cotizada.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Flota Cotizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC89641-6618-4C7E-AF30-0BDBF4E81F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827A5DA-5F9E-4CB0-97EE-B124AAA2CD93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NumSolicitudPoliza</t>
   </si>
   <si>
-    <t/>
+    <t>0004134442</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>

--- a/Sura/DataSource - ValidaFormularios - Flota Cotizada.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Flota Cotizada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827A5DA-5F9E-4CB0-97EE-B124AAA2CD93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C1C42-B182-4889-8303-900379208884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NumSolicitudPoliza</t>
   </si>
   <si>
-    <t>0004134442</t>
+    <t>0024435320</t>
   </si>
 </sst>
 </file>
